--- a/biology/Botanique/Singana_guianensis/Singana_guianensis.xlsx
+++ b/biology/Botanique/Singana_guianensis/Singana_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Singana est un genre monospécifique de plantes, endémique de Guyane, appartenant probablement à la famille des Celastraceae[2] (anciennement attribué aux Guttifères, ou aux Fabaceae[3]), dont l'espèce type est Singana guianensis Aubl..
-Ce taxon mal défini, est connu uniquement de son protologue et de son échantillon type stérile collecté dans la région de l'Orapu-Kaw (BM000884768 [4]), et appartient probablement en fait aux genres Tontelea Miers 1872 ou Salacia L. 1771[2],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Singana est un genre monospécifique de plantes, endémique de Guyane, appartenant probablement à la famille des Celastraceae (anciennement attribué aux Guttifères, ou aux Fabaceae), dont l'espèce type est Singana guianensis Aubl..
+Ce taxon mal défini, est connu uniquement de son protologue et de son échantillon type stérile collecté dans la région de l'Orapu-Kaw (BM000884768 ), et appartient probablement en fait aux genres Tontelea Miers 1872 ou Salacia L. 1771,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « SINGANA (Tabula 230.)
 CAL. Perianthium pentaphyllum, foliolis ſubrotundis, acutis concavis. 
 COR. Petala quinque, ſubrotunda, denticulata, ungue anguſto, brevi, inſerto receptaculo. 
